--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2061,17 +2061,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.69140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.8203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="251.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="215.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2080,27 +2080,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.55859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="34.3125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="110.08203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="155.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="133.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-videoappointment.xlsx
+++ b/fhir/StructureDefinition-ehealth-videoappointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -809,7 +809,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -909,7 +909,7 @@
     <t>Appointment.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -977,7 +977,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason|4.0.1</t>
   </si>
   <si>
     <t>Appointment.serviceCategory</t>
@@ -989,7 +989,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
@@ -1010,7 +1010,7 @@
     <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.code}
@@ -1253,7 +1253,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>.performer.AssignedPerson.code</t>
@@ -1307,7 +1307,7 @@
     <t>Appointment.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1467,7 +1467,7 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot)
+    <t xml:space="preserve">Reference(Slot|4.0.1)
 </t>
   </si>
   <si>
@@ -1547,7 +1547,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1647,7 +1647,7 @@
     <t>Role of participant in encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
@@ -2086,7 +2086,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.0859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
